--- a/figure/streamlifetime.xlsx
+++ b/figure/streamlifetime.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
   <si>
     <t>S0</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -238,9 +238,19 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Auto
-Stream</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>AutoStream</t>
+  </si>
+  <si>
+    <t>PCStream*</t>
+  </si>
+  <si>
+    <t>PCStream</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>평균</t>
   </si>
 </sst>
 </file>
@@ -986,7 +996,7 @@
                     <c:v>403552</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1294073.5</c:v>
+                    <c:v>1594073.5</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>1834567</c:v>
@@ -1004,7 +1014,7 @@
                     <c:v>475701</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1100571.25</c:v>
+                    <c:v>2100571.25</c:v>
                   </c:pt>
                   <c:pt idx="8">
                     <c:v>1552430</c:v>
@@ -1398,7 +1408,6 @@
         <c:axId val="839393944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4099999.9999999995"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1543,6 +1552,863 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3분위</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$37:$Y$38</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="24"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>7</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AutoStream</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>PCStream*</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>PCStream</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Manual</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$39:$Y$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>43807.887631893973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81678.567350449972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>274381.80416672002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>552172.56735044997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8841.8632461160996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57970.948542023994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>106792.625899281</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66766.668282950064</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>875429.05058188993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8681.0307081680003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83846.120408162999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87525.109662397997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39088.11863991397</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18474.78964736301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1989595.4300852902</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1975394.1152191102</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9743.3725514922007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62982.94974675501</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>144056</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>110364.158531286</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140781.129686834</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>106105.48140900198</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>168748.1789764401</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1242997.0102621899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4975-4EBC-BA42-7E64D883DFEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>평균</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$37:$Y$38</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="24"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>7</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AutoStream</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>PCStream*</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>PCStream</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Manual</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$40:$Y$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>279858.11236810603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1124419.43264955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1028039.69583328</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1028816.43264955</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11964.8867538839</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93251.051457976006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>116407.374100719</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1062296.3317170499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>979903.69941811007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11307.719291832</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>118203.629591837</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96285.390337602003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>362326.88136008603</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>553026.21035263699</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1783368.0699147098</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2092620.8847808898</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13388.127448507799</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>87651.05025324499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>105428</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120424.841468714</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>181774.620313166</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>208182.01859099802</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>512976.8210235599</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1117084.9897378101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4975-4EBC-BA42-7E64D883DFEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1분위</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="15875">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$37:$Y$38</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="24"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>7</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AutoStream</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>PCStream*</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>PCStream</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Manual</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$41:$Y$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>79886</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>349735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>291652</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>253578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8639.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7738</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>252501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>423367</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>245238.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9465.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8546.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>269052.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>199930</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>310073</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>914345.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>682350.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10550</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>126378.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>176191</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>318203.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>265775.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>283775.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>537399</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2941409</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4975-4EBC-BA42-7E64D883DFEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="466647272"/>
+        <c:axId val="466643664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="466647272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466643664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="466643664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Lifetime (# of writes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6531364032785035E-2"/>
+              <c:y val="0.22763502986122533"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466647272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -2247,6 +3113,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2764,6 +3670,511 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3306,6 +4717,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228520</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>25932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>33418</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>121743</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3636,10 +5077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y34"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4336,10 +5777,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>57</v>
-      </c>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
       <c r="B30" t="s">
         <v>51</v>
       </c>
@@ -4435,7 +5874,7 @@
         <v>403552</v>
       </c>
       <c r="C32">
-        <v>1294073.5</v>
+        <v>1594073.5</v>
       </c>
       <c r="D32">
         <v>1834567</v>
@@ -4453,7 +5892,7 @@
         <v>475701</v>
       </c>
       <c r="I32">
-        <v>1100571.25</v>
+        <v>2100571.25</v>
       </c>
       <c r="J32">
         <v>1552430</v>
@@ -4655,6 +6094,373 @@
         <v>537399</v>
       </c>
       <c r="Y34">
+        <v>2941409</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" t="s">
+        <v>59</v>
+      </c>
+      <c r="R37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38">
+        <v>4</v>
+      </c>
+      <c r="P38">
+        <v>5</v>
+      </c>
+      <c r="Q38">
+        <v>6</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>3</v>
+      </c>
+      <c r="V38">
+        <v>4</v>
+      </c>
+      <c r="W38">
+        <v>5</v>
+      </c>
+      <c r="X38">
+        <v>6</v>
+      </c>
+      <c r="Y38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <f>B32-B33</f>
+        <v>43807.887631893973</v>
+      </c>
+      <c r="C39">
+        <f>E32-E33</f>
+        <v>81678.567350449972</v>
+      </c>
+      <c r="D39">
+        <f>C32-C33</f>
+        <v>274381.80416672002</v>
+      </c>
+      <c r="E39">
+        <f>D32-D33</f>
+        <v>552172.56735044997</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ref="C39:Y39" si="5">F32-F33</f>
+        <v>8841.8632461160996</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="5"/>
+        <v>57970.948542023994</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="5"/>
+        <v>106792.625899281</v>
+      </c>
+      <c r="I39">
+        <f>J32-J33</f>
+        <v>66766.668282950064</v>
+      </c>
+      <c r="J39">
+        <f>I32-I33</f>
+        <v>875429.05058188993</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="5"/>
+        <v>8681.0307081680003</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="5"/>
+        <v>83846.120408162999</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="5"/>
+        <v>87525.109662397997</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="5"/>
+        <v>39088.11863991397</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="5"/>
+        <v>18474.78964736301</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="5"/>
+        <v>1989595.4300852902</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="5"/>
+        <v>1975394.1152191102</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="5"/>
+        <v>9743.3725514922007</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="5"/>
+        <v>62982.94974675501</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="5"/>
+        <v>144056</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="5"/>
+        <v>110364.158531286</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="5"/>
+        <v>140781.129686834</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="5"/>
+        <v>106105.48140900198</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="5"/>
+        <v>168748.1789764401</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="5"/>
+        <v>1242997.0102621899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40">
+        <f>B33-B34</f>
+        <v>279858.11236810603</v>
+      </c>
+      <c r="C40">
+        <f>E33-E34</f>
+        <v>1124419.43264955</v>
+      </c>
+      <c r="D40">
+        <f>C33-C34</f>
+        <v>1028039.69583328</v>
+      </c>
+      <c r="E40">
+        <f>D33-D34</f>
+        <v>1028816.43264955</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ref="C40:Y40" si="6">F33-F34</f>
+        <v>11964.8867538839</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="6"/>
+        <v>93251.051457976006</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="6"/>
+        <v>116407.374100719</v>
+      </c>
+      <c r="I40">
+        <f>J33-J34</f>
+        <v>1062296.3317170499</v>
+      </c>
+      <c r="J40">
+        <f>I33-I34</f>
+        <v>979903.69941811007</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="6"/>
+        <v>11307.719291832</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="6"/>
+        <v>118203.629591837</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="6"/>
+        <v>96285.390337602003</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="6"/>
+        <v>362326.88136008603</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="6"/>
+        <v>553026.21035263699</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="6"/>
+        <v>1783368.0699147098</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="6"/>
+        <v>2092620.8847808898</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="6"/>
+        <v>13388.127448507799</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="6"/>
+        <v>87651.05025324499</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="6"/>
+        <v>105428</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="6"/>
+        <v>120424.841468714</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="6"/>
+        <v>181774.620313166</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="6"/>
+        <v>208182.01859099802</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="6"/>
+        <v>512976.8210235599</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="6"/>
+        <v>1117084.9897378101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <v>79886</v>
+      </c>
+      <c r="C41">
+        <v>349735</v>
+      </c>
+      <c r="D41">
+        <v>291652</v>
+      </c>
+      <c r="E41">
+        <v>253578</v>
+      </c>
+      <c r="F41">
+        <v>8639.5</v>
+      </c>
+      <c r="G41">
+        <v>7738</v>
+      </c>
+      <c r="H41">
+        <v>252501</v>
+      </c>
+      <c r="I41">
+        <v>423367</v>
+      </c>
+      <c r="J41">
+        <v>245238.5</v>
+      </c>
+      <c r="K41">
+        <v>9465.25</v>
+      </c>
+      <c r="L41">
+        <v>8546.75</v>
+      </c>
+      <c r="M41">
+        <v>269052.5</v>
+      </c>
+      <c r="N41">
+        <v>199930</v>
+      </c>
+      <c r="O41">
+        <v>310073</v>
+      </c>
+      <c r="P41">
+        <v>914345.25</v>
+      </c>
+      <c r="Q41">
+        <v>682350.5</v>
+      </c>
+      <c r="R41">
+        <v>10550</v>
+      </c>
+      <c r="S41">
+        <v>126378.75</v>
+      </c>
+      <c r="T41">
+        <v>176191</v>
+      </c>
+      <c r="U41">
+        <v>318203.5</v>
+      </c>
+      <c r="V41">
+        <v>265775.25</v>
+      </c>
+      <c r="W41">
+        <v>283775.5</v>
+      </c>
+      <c r="X41">
+        <v>537399</v>
+      </c>
+      <c r="Y41">
         <v>2941409</v>
       </c>
     </row>

--- a/figure/streamlifetime.xlsx
+++ b/figure/streamlifetime.xlsx
@@ -16,12 +16,28 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="7" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.0" hidden="1">Sheet1!$B$37:$Y$37</definedName>
+    <definedName name="_xlchart.1" hidden="1">Sheet1!$B$38:$Y$38</definedName>
+    <definedName name="_xlchart.10" hidden="1">Sheet1!$B$40:$Y$40</definedName>
+    <definedName name="_xlchart.11" hidden="1">Sheet1!$B$41:$Y$41</definedName>
+    <definedName name="_xlchart.12" hidden="1">Sheet1!$B$42:$Y$42</definedName>
+    <definedName name="_xlchart.13" hidden="1">Sheet1!$B$43:$Y$43</definedName>
+    <definedName name="_xlchart.2" hidden="1">Sheet1!$B$39:$Y$39</definedName>
+    <definedName name="_xlchart.3" hidden="1">Sheet1!$B$40:$Y$40</definedName>
+    <definedName name="_xlchart.4" hidden="1">Sheet1!$B$41:$Y$41</definedName>
+    <definedName name="_xlchart.5" hidden="1">Sheet1!$B$42:$Y$42</definedName>
+    <definedName name="_xlchart.6" hidden="1">Sheet1!$B$43:$Y$43</definedName>
+    <definedName name="_xlchart.7" hidden="1">Sheet1!$B$37:$Y$37</definedName>
+    <definedName name="_xlchart.8" hidden="1">Sheet1!$B$38:$Y$38</definedName>
+    <definedName name="_xlchart.9" hidden="1">Sheet1!$B$39:$Y$39</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="64">
   <si>
     <t>S0</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -234,23 +250,36 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>평균</t>
+    <t>60 p</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>AutoStream</t>
+    <t>40 p</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>PCStream*</t>
+    <t>40p</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>PCStream</t>
+    <t>중간</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Manual</t>
+    <t>중간</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>평균</t>
+    <t>60p</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상한</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>하한</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -931,219 +960,123 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.1533399788805648"/>
-          <c:y val="5.0925925925925923E-2"/>
-          <c:w val="0.83187466419068556"/>
-          <c:h val="0.75359507144940219"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$33</c:f>
+              <c:f>Sheet1!$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>평균</c:v>
+                  <c:v>40p</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:noFill/>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
+            <c:errBarType val="minus"/>
             <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
             <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$B$32:$Y$32</c:f>
+                <c:f>Sheet1!$B$43:$Y$43</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="24"/>
                   <c:pt idx="0">
-                    <c:v>403552</c:v>
+                    <c:v>75998</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1594073.5</c:v>
+                    <c:v>165590.20000000001</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1834567</c:v>
+                    <c:v>186660.80000000005</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1555833</c:v>
+                    <c:v>219140</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>29446.25</c:v>
+                    <c:v>5354.7000000000007</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>158960</c:v>
+                    <c:v>51333</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>475701</c:v>
+                    <c:v>69914</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2100571.25</c:v>
+                    <c:v>154208.5</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1552430</c:v>
+                    <c:v>203331.19999999995</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>29454</c:v>
+                    <c:v>6188.35</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>210596.5</c:v>
+                    <c:v>58194.05</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>452863</c:v>
+                    <c:v>80949.599999999977</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>601345</c:v>
+                    <c:v>59046.900000000023</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>881574</c:v>
+                    <c:v>105028.40000000002</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>4687308.75</c:v>
+                    <c:v>303475.75</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>4750365.5</c:v>
+                    <c:v>447470.5</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>33681.5</c:v>
+                    <c:v>8520.2000000000007</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>277012.75</c:v>
+                    <c:v>32380</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>425675</c:v>
+                    <c:v>42010.25</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>548992.5</c:v>
+                    <c:v>88944.75</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>588331</c:v>
+                    <c:v>100219.5</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>598063</c:v>
+                    <c:v>69714.099999999977</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>1219124</c:v>
+                    <c:v>212067.80000000005</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>5301491</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Sheet1!$B$34:$Y$34</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="24"/>
-                  <c:pt idx="0">
-                    <c:v>79886</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>291652</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>253578</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>349735</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>8639.5</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>7738</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>252501</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>245238.5</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>423367</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>9465.25</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>8546.75</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>269052.5</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>199930</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>310073</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>914345.25</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>682350.5</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>10550</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>126378.75</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>176191</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>318203.5</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>265775.25</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>283775.5</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>537399</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>2941409</c:v>
+                    <c:v>822047.20000000019</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1164,7 +1097,7 @@
           </c:errBars>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$B$30:$Y$31</c:f>
+              <c:f>Sheet1!$B$37:$Y$38</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="24"/>
                 <c:lvl>
@@ -1260,89 +1193,618 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$33:$Y$33</c:f>
+              <c:f>Sheet1!$B$39:$Y$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>359744.11236810603</c:v>
+                  <c:v>155884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1319691.69583328</c:v>
+                  <c:v>457242.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1282394.43264955</c:v>
+                  <c:v>536395.80000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1474154.43264955</c:v>
+                  <c:v>558321</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20604.3867538839</c:v>
+                  <c:v>13994.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100989.05145797601</c:v>
+                  <c:v>59071</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>368908.374100719</c:v>
+                  <c:v>322415</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1225142.1994181101</c:v>
+                  <c:v>399447</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1485663.3317170499</c:v>
+                  <c:v>626698.19999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20772.969291832</c:v>
+                  <c:v>15653.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>126750.379591837</c:v>
+                  <c:v>66740.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>365337.890337602</c:v>
+                  <c:v>280879.59999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>562256.88136008603</c:v>
+                  <c:v>328099.40000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>863099.21035263699</c:v>
+                  <c:v>415101.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2697713.3199147098</c:v>
+                  <c:v>1217821</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2774971.3847808898</c:v>
+                  <c:v>1129821</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23938.127448507799</c:v>
+                  <c:v>19070.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>214029.80025324499</c:v>
+                  <c:v>172671</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>281619</c:v>
+                  <c:v>168389</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>438628.341468714</c:v>
+                  <c:v>354720</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>447549.870313166</c:v>
+                  <c:v>383995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>491957.51859099802</c:v>
+                  <c:v>387917.6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1050375.8210235599</c:v>
+                  <c:v>749466.8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4058493.9897378101</c:v>
+                  <c:v>3763456.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DE5E-4285-94F6-FD61D3C97223}"/>
+              <c16:uniqueId val="{00000000-F05D-416A-9C8F-76797FE26BB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>중간</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$37:$Y$38</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="24"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>7</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AutoStream</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>PCStream*</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>PCStream</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Manual</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$40:$Y$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>76110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140414.79999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158118.19999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>222713</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4962.2999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9793</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60440</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>119835.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>153071.80000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3993.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92324.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71786.400000000023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35899.599999999977</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94337.599999999977</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>248137.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>718919</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4172.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10044</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25094</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63086</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45965</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42328.400000000023</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>117949.19999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>436685.79999999981</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F05D-416A-9C8F-76797FE26BB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$B$42:$Y$42</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="24"/>
+                  <c:pt idx="0">
+                    <c:v>113999.20000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>502190.9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>604525.6</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>665145</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6342.0499999999993</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>42724.2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>63083.599999999977</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>409932.25</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>554189.99999999895</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6317.5999999999985</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>26884.5</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>169731.20000000001</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>58991.200000000012</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>241563.80000000005</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2234203.75</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1298561.5</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>6616.7000000000007</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>43115</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>54496.75</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>104085</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>108721.59999999998</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>76932.900000000023</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>208785.80000000005</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>541770.40000000037</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$37:$Y$38</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="24"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>7</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AutoStream</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>PCStream*</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>PCStream</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Manual</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$41:$Y$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>57558.799999999988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>194225.59999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256793.40000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>248353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4147.7000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47371.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29762.400000000023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>171356.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>218470.00000000105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3489.4000000000015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24646.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78947.799999999988</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29872.799999999988</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130571.19999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>987146.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1603064</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3821.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29108</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29033</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66440</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59381.400000000023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41813.599999999977</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>142922.19999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>559578.59999999963</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F05D-416A-9C8F-76797FE26BB9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1354,13 +1816,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="839403128"/>
-        <c:axId val="839393944"/>
-      </c:lineChart>
+        <c:gapWidth val="40"/>
+        <c:overlap val="100"/>
+        <c:axId val="1137221352"/>
+        <c:axId val="1137218400"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="839403128"/>
+        <c:axId val="1137221352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,7 +1847,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1397,7 +1859,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="839393944"/>
+        <c:crossAx val="1137218400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1405,10 +1867,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="839393944"/>
+        <c:axId val="1137218400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1419,7 +1880,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -1429,10 +1890,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Lifetime (# of writes)</a:t>
                 </a:r>
-                <a:endParaRPr lang="ko-KR" b="1"/>
+                <a:endParaRPr lang="ko-KR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1440,8 +1901,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.3888888888888888E-2"/>
-              <c:y val="0.21645049577136191"/>
+              <c:x val="9.1128046098449579E-3"/>
+              <c:y val="0.32231081370528059"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1457,7 +1918,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -1488,7 +1949,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1500,872 +1961,16 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="839403128"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="1000000"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3분위</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet1!$B$37:$Y$38</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="24"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>7</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>AutoStream</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>PCStream*</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>PCStream</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Manual</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$39:$Y$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>43807.887631893973</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>81678.567350449972</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>274381.80416672002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>552172.56735044997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8841.8632461160996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>57970.948542023994</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>106792.625899281</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>66766.668282950064</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>875429.05058188993</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8681.0307081680003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>83846.120408162999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>87525.109662397997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>39088.11863991397</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18474.78964736301</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1989595.4300852902</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1975394.1152191102</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9743.3725514922007</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>62982.94974675501</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>144056</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>110364.158531286</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>140781.129686834</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>106105.48140900198</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>168748.1789764401</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1242997.0102621899</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4975-4EBC-BA42-7E64D883DFEC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>평균</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="15875">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet1!$B$37:$Y$38</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="24"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>7</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>AutoStream</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>PCStream*</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>PCStream</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Manual</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$40:$Y$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>279858.11236810603</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1124419.43264955</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1028039.69583328</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1028816.43264955</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11964.8867538839</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>93251.051457976006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>116407.374100719</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1062296.3317170499</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>979903.69941811007</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11307.719291832</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>118203.629591837</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>96285.390337602003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>362326.88136008603</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>553026.21035263699</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1783368.0699147098</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2092620.8847808898</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13388.127448507799</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>87651.05025324499</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>105428</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>120424.841468714</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>181774.620313166</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>208182.01859099802</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>512976.8210235599</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1117084.9897378101</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4975-4EBC-BA42-7E64D883DFEC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$41</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1분위</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="15875">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet1!$B$37:$Y$38</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="24"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>7</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>AutoStream</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>PCStream*</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>PCStream</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Manual</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$41:$Y$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>79886</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>349735</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>291652</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>253578</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8639.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7738</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>252501</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>423367</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>245238.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9465.25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8546.75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>269052.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>199930</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>310073</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>914345.25</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>682350.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10550</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>126378.75</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>176191</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>318203.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>265775.25</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>283775.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>537399</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2941409</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4975-4EBC-BA42-7E64D883DFEC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="466647272"/>
-        <c:axId val="466643664"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="466647272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="466643664"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="466643664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR"/>
-                  <a:t>Lifetime (# of writes)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.6531364032785035E-2"/>
-              <c:y val="0.22763502986122533"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="466647272"/>
+        <c:crossAx val="1137221352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -2391,7 +1996,7 @@
       <a:pPr>
         <a:defRPr>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
           <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2408,7 +2013,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -3113,563 +2718,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4174,7 +3223,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4694,20 +3743,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>588309</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>181840</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251732</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>375397</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>173181</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvPr id="7" name="차트 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4717,36 +3766,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>228520</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>25932</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>33418</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>121743</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="차트 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5077,10 +4096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y41"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5777,338 +4796,493 @@
         <v>6</v>
       </c>
     </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" t="s">
+        <v>52</v>
+      </c>
+      <c r="R29" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30" t="s">
-        <v>52</v>
-      </c>
-      <c r="R30" t="s">
-        <v>54</v>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30">
+        <v>4</v>
+      </c>
+      <c r="P30">
+        <v>5</v>
+      </c>
+      <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
+        <v>3</v>
+      </c>
+      <c r="V30">
+        <v>4</v>
+      </c>
+      <c r="W30">
+        <v>5</v>
+      </c>
+      <c r="X30">
+        <v>6</v>
+      </c>
+      <c r="Y30">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
       <c r="B31">
-        <v>0</v>
+        <v>403552</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>1294073.5</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1555833</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1694532</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>29446.25</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>158960</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>475701</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>1100571.25</v>
       </c>
       <c r="J31">
-        <v>4</v>
+        <v>1552430</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>29454</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>210596.5</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>601345</v>
       </c>
       <c r="N31">
-        <v>3</v>
+        <v>452863</v>
       </c>
       <c r="O31">
-        <v>4</v>
+        <v>881574</v>
       </c>
       <c r="P31">
-        <v>5</v>
+        <v>4687308.75</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>4750365.5</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>33681.5</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>254938</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>277012.75</v>
       </c>
       <c r="U31">
-        <v>3</v>
+        <v>588331</v>
       </c>
       <c r="V31">
-        <v>4</v>
+        <v>598063</v>
       </c>
       <c r="W31">
-        <v>5</v>
+        <v>548992.5</v>
       </c>
       <c r="X31">
-        <v>6</v>
+        <v>1219124</v>
       </c>
       <c r="Y31">
-        <v>7</v>
+        <v>5301491</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B32">
-        <v>403552</v>
+        <v>289552.8</v>
       </c>
       <c r="C32">
-        <v>1594073.5</v>
+        <v>791882.6</v>
       </c>
       <c r="D32">
-        <v>1834567</v>
+        <v>951307.4</v>
       </c>
       <c r="E32">
-        <v>1555833</v>
+        <v>1029387</v>
       </c>
       <c r="F32">
-        <v>29446.25</v>
+        <v>23104.2</v>
       </c>
       <c r="G32">
-        <v>158960</v>
+        <v>116235.8</v>
       </c>
       <c r="H32">
-        <v>475701</v>
+        <v>412617.4</v>
       </c>
       <c r="I32">
-        <v>2100571.25</v>
+        <v>690639</v>
       </c>
       <c r="J32">
-        <v>1552430</v>
+        <v>998240.00000000105</v>
       </c>
       <c r="K32">
-        <v>29454</v>
+        <v>23136.400000000001</v>
       </c>
       <c r="L32">
-        <v>210596.5</v>
+        <v>183712</v>
       </c>
       <c r="M32">
-        <v>452863</v>
+        <v>431613.8</v>
       </c>
       <c r="N32">
-        <v>601345</v>
+        <v>393871.8</v>
       </c>
       <c r="O32">
-        <v>881574</v>
+        <v>640010.19999999995</v>
       </c>
       <c r="P32">
-        <v>4687308.75</v>
+        <v>2453105</v>
       </c>
       <c r="Q32">
-        <v>4750365.5</v>
+        <v>3451804</v>
       </c>
       <c r="R32">
-        <v>33681.5</v>
+        <v>27064.799999999999</v>
       </c>
       <c r="S32">
-        <v>277012.75</v>
+        <v>211823</v>
       </c>
       <c r="T32">
-        <v>425675</v>
+        <v>222516</v>
       </c>
       <c r="U32">
-        <v>548992.5</v>
+        <v>484246</v>
       </c>
       <c r="V32">
-        <v>588331</v>
+        <v>489341.4</v>
       </c>
       <c r="W32">
-        <v>598063</v>
+        <v>472059.6</v>
       </c>
       <c r="X32">
-        <v>1219124</v>
+        <v>1010338.2</v>
       </c>
       <c r="Y32">
-        <v>5301491</v>
+        <v>4759720.5999999996</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B33">
-        <v>359744.11236810603</v>
+        <v>231994</v>
       </c>
       <c r="C33">
-        <v>1319691.69583328</v>
+        <v>597657</v>
       </c>
       <c r="D33">
-        <v>1282394.43264955</v>
+        <v>694514</v>
       </c>
       <c r="E33">
-        <v>1474154.43264955</v>
+        <v>781034</v>
       </c>
       <c r="F33">
-        <v>20604.3867538839</v>
+        <v>18956.5</v>
       </c>
       <c r="G33">
-        <v>100989.05145797601</v>
+        <v>68864</v>
       </c>
       <c r="H33">
-        <v>368908.374100719</v>
+        <v>382855</v>
       </c>
       <c r="I33">
-        <v>1225142.1994181101</v>
+        <v>519282.5</v>
       </c>
       <c r="J33">
-        <v>1485663.3317170499</v>
+        <v>779770</v>
       </c>
       <c r="K33">
-        <v>20772.969291832</v>
+        <v>19647</v>
       </c>
       <c r="L33">
-        <v>126750.379591837</v>
+        <v>159065.5</v>
       </c>
       <c r="M33">
-        <v>365337.890337602</v>
+        <v>352666</v>
       </c>
       <c r="N33">
-        <v>562256.88136008603</v>
+        <v>363999</v>
       </c>
       <c r="O33">
-        <v>863099.21035263699</v>
+        <v>509439</v>
       </c>
       <c r="P33">
-        <v>2697713.3199147098</v>
+        <v>1465958.5</v>
       </c>
       <c r="Q33">
-        <v>2774971.3847808898</v>
+        <v>1848740</v>
       </c>
       <c r="R33">
-        <v>23938.127448507799</v>
+        <v>23243</v>
       </c>
       <c r="S33">
-        <v>214029.80025324499</v>
+        <v>182715</v>
       </c>
       <c r="T33">
-        <v>281619</v>
+        <v>193483</v>
       </c>
       <c r="U33">
-        <v>438628.341468714</v>
+        <v>417806</v>
       </c>
       <c r="V33">
-        <v>447549.870313166</v>
+        <v>429960</v>
       </c>
       <c r="W33">
-        <v>491957.51859099802</v>
+        <v>430246</v>
       </c>
       <c r="X33">
-        <v>1050375.8210235599</v>
+        <v>867416</v>
       </c>
       <c r="Y33">
-        <v>4058493.9897378101</v>
+        <v>4200142</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34">
+        <v>155884</v>
+      </c>
+      <c r="C34">
+        <v>457242.2</v>
+      </c>
+      <c r="D34">
+        <v>536395.80000000005</v>
+      </c>
+      <c r="E34">
+        <v>558321</v>
+      </c>
+      <c r="F34">
+        <v>13994.2</v>
+      </c>
+      <c r="G34">
+        <v>59071</v>
+      </c>
+      <c r="H34">
+        <v>322415</v>
+      </c>
+      <c r="I34">
+        <v>399447</v>
+      </c>
+      <c r="J34">
+        <v>626698.19999999995</v>
+      </c>
+      <c r="K34">
+        <v>15653.6</v>
+      </c>
+      <c r="L34">
+        <v>66740.800000000003</v>
+      </c>
+      <c r="M34">
+        <v>280879.59999999998</v>
+      </c>
+      <c r="N34">
+        <v>328099.40000000002</v>
+      </c>
+      <c r="O34">
+        <v>415101.4</v>
+      </c>
+      <c r="P34">
+        <v>1217821</v>
+      </c>
+      <c r="Q34">
+        <v>1129821</v>
+      </c>
+      <c r="R34">
+        <v>19070.2</v>
+      </c>
+      <c r="S34">
+        <v>172671</v>
+      </c>
+      <c r="T34">
+        <v>168389</v>
+      </c>
+      <c r="U34">
+        <v>354720</v>
+      </c>
+      <c r="V34">
+        <v>383995</v>
+      </c>
+      <c r="W34">
+        <v>387917.6</v>
+      </c>
+      <c r="X34">
+        <v>749466.8</v>
+      </c>
+      <c r="Y34">
+        <v>3763456.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>49</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>79886</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>291652</v>
       </c>
-      <c r="D34">
-        <v>253578</v>
-      </c>
-      <c r="E34">
+      <c r="D35">
         <v>349735</v>
       </c>
-      <c r="F34">
+      <c r="E35">
+        <v>339181</v>
+      </c>
+      <c r="F35">
         <v>8639.5</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <v>7738</v>
       </c>
-      <c r="H34">
+      <c r="H35">
         <v>252501</v>
       </c>
-      <c r="I34">
+      <c r="I35">
         <v>245238.5</v>
       </c>
-      <c r="J34">
+      <c r="J35">
         <v>423367</v>
       </c>
-      <c r="K34">
+      <c r="K35">
         <v>9465.25</v>
       </c>
-      <c r="L34">
+      <c r="L35">
         <v>8546.75</v>
       </c>
-      <c r="M34">
+      <c r="M35">
+        <v>199930</v>
+      </c>
+      <c r="N35">
         <v>269052.5</v>
       </c>
-      <c r="N34">
-        <v>199930</v>
-      </c>
-      <c r="O34">
+      <c r="O35">
         <v>310073</v>
       </c>
-      <c r="P34">
+      <c r="P35">
         <v>914345.25</v>
       </c>
-      <c r="Q34">
+      <c r="Q35">
         <v>682350.5</v>
       </c>
-      <c r="R34">
+      <c r="R35">
         <v>10550</v>
       </c>
-      <c r="S34">
+      <c r="S35">
+        <v>140291</v>
+      </c>
+      <c r="T35">
         <v>126378.75</v>
       </c>
-      <c r="T34">
-        <v>176191</v>
-      </c>
-      <c r="U34">
+      <c r="U35">
+        <v>265775.25</v>
+      </c>
+      <c r="V35">
+        <v>283775.5</v>
+      </c>
+      <c r="W35">
         <v>318203.5</v>
       </c>
-      <c r="V34">
-        <v>265775.25</v>
-      </c>
-      <c r="W34">
-        <v>283775.5</v>
-      </c>
-      <c r="X34">
+      <c r="X35">
         <v>537399</v>
       </c>
-      <c r="Y34">
+      <c r="Y35">
         <v>2941409</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="K37" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="R37" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
@@ -6187,284 +5361,513 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B39">
-        <f>B32-B33</f>
-        <v>43807.887631893973</v>
+        <f>B34</f>
+        <v>155884</v>
       </c>
       <c r="C39">
-        <f>E32-E33</f>
-        <v>81678.567350449972</v>
+        <f t="shared" ref="C39:Y39" si="5">C34</f>
+        <v>457242.2</v>
       </c>
       <c r="D39">
-        <f>C32-C33</f>
-        <v>274381.80416672002</v>
+        <f t="shared" si="5"/>
+        <v>536395.80000000005</v>
       </c>
       <c r="E39">
-        <f>D32-D33</f>
-        <v>552172.56735044997</v>
+        <f t="shared" si="5"/>
+        <v>558321</v>
       </c>
       <c r="F39">
-        <f t="shared" ref="C39:Y39" si="5">F32-F33</f>
-        <v>8841.8632461160996</v>
+        <f t="shared" si="5"/>
+        <v>13994.2</v>
       </c>
       <c r="G39">
         <f t="shared" si="5"/>
-        <v>57970.948542023994</v>
+        <v>59071</v>
       </c>
       <c r="H39">
         <f t="shared" si="5"/>
-        <v>106792.625899281</v>
+        <v>322415</v>
       </c>
       <c r="I39">
-        <f>J32-J33</f>
-        <v>66766.668282950064</v>
+        <f t="shared" si="5"/>
+        <v>399447</v>
       </c>
       <c r="J39">
-        <f>I32-I33</f>
-        <v>875429.05058188993</v>
+        <f t="shared" si="5"/>
+        <v>626698.19999999995</v>
       </c>
       <c r="K39">
         <f t="shared" si="5"/>
-        <v>8681.0307081680003</v>
+        <v>15653.6</v>
       </c>
       <c r="L39">
         <f t="shared" si="5"/>
-        <v>83846.120408162999</v>
+        <v>66740.800000000003</v>
       </c>
       <c r="M39">
         <f t="shared" si="5"/>
-        <v>87525.109662397997</v>
+        <v>280879.59999999998</v>
       </c>
       <c r="N39">
         <f t="shared" si="5"/>
-        <v>39088.11863991397</v>
+        <v>328099.40000000002</v>
       </c>
       <c r="O39">
         <f t="shared" si="5"/>
-        <v>18474.78964736301</v>
+        <v>415101.4</v>
       </c>
       <c r="P39">
         <f t="shared" si="5"/>
-        <v>1989595.4300852902</v>
+        <v>1217821</v>
       </c>
       <c r="Q39">
         <f t="shared" si="5"/>
-        <v>1975394.1152191102</v>
+        <v>1129821</v>
       </c>
       <c r="R39">
         <f t="shared" si="5"/>
-        <v>9743.3725514922007</v>
+        <v>19070.2</v>
       </c>
       <c r="S39">
         <f t="shared" si="5"/>
-        <v>62982.94974675501</v>
+        <v>172671</v>
       </c>
       <c r="T39">
         <f t="shared" si="5"/>
-        <v>144056</v>
+        <v>168389</v>
       </c>
       <c r="U39">
         <f t="shared" si="5"/>
-        <v>110364.158531286</v>
+        <v>354720</v>
       </c>
       <c r="V39">
         <f t="shared" si="5"/>
-        <v>140781.129686834</v>
+        <v>383995</v>
       </c>
       <c r="W39">
         <f t="shared" si="5"/>
-        <v>106105.48140900198</v>
+        <v>387917.6</v>
       </c>
       <c r="X39">
         <f t="shared" si="5"/>
-        <v>168748.1789764401</v>
+        <v>749466.8</v>
       </c>
       <c r="Y39">
         <f t="shared" si="5"/>
-        <v>1242997.0102621899</v>
+        <v>3763456.2</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40">
         <f>B33-B34</f>
-        <v>279858.11236810603</v>
+        <v>76110</v>
       </c>
       <c r="C40">
-        <f>E33-E34</f>
-        <v>1124419.43264955</v>
+        <f t="shared" ref="C40:Y40" si="6">C33-C34</f>
+        <v>140414.79999999999</v>
       </c>
       <c r="D40">
-        <f>C33-C34</f>
-        <v>1028039.69583328</v>
+        <f t="shared" si="6"/>
+        <v>158118.19999999995</v>
       </c>
       <c r="E40">
-        <f>D33-D34</f>
-        <v>1028816.43264955</v>
+        <f t="shared" si="6"/>
+        <v>222713</v>
       </c>
       <c r="F40">
-        <f t="shared" ref="C40:Y40" si="6">F33-F34</f>
-        <v>11964.8867538839</v>
+        <f t="shared" si="6"/>
+        <v>4962.2999999999993</v>
       </c>
       <c r="G40">
         <f t="shared" si="6"/>
-        <v>93251.051457976006</v>
+        <v>9793</v>
       </c>
       <c r="H40">
         <f t="shared" si="6"/>
-        <v>116407.374100719</v>
+        <v>60440</v>
       </c>
       <c r="I40">
-        <f>J33-J34</f>
-        <v>1062296.3317170499</v>
+        <f t="shared" si="6"/>
+        <v>119835.5</v>
       </c>
       <c r="J40">
-        <f>I33-I34</f>
-        <v>979903.69941811007</v>
+        <f t="shared" si="6"/>
+        <v>153071.80000000005</v>
       </c>
       <c r="K40">
         <f t="shared" si="6"/>
-        <v>11307.719291832</v>
+        <v>3993.3999999999996</v>
       </c>
       <c r="L40">
         <f t="shared" si="6"/>
-        <v>118203.629591837</v>
+        <v>92324.7</v>
       </c>
       <c r="M40">
         <f t="shared" si="6"/>
-        <v>96285.390337602003</v>
+        <v>71786.400000000023</v>
       </c>
       <c r="N40">
         <f t="shared" si="6"/>
-        <v>362326.88136008603</v>
+        <v>35899.599999999977</v>
       </c>
       <c r="O40">
         <f t="shared" si="6"/>
-        <v>553026.21035263699</v>
+        <v>94337.599999999977</v>
       </c>
       <c r="P40">
         <f t="shared" si="6"/>
-        <v>1783368.0699147098</v>
+        <v>248137.5</v>
       </c>
       <c r="Q40">
         <f t="shared" si="6"/>
-        <v>2092620.8847808898</v>
+        <v>718919</v>
       </c>
       <c r="R40">
         <f t="shared" si="6"/>
-        <v>13388.127448507799</v>
+        <v>4172.7999999999993</v>
       </c>
       <c r="S40">
         <f t="shared" si="6"/>
-        <v>87651.05025324499</v>
+        <v>10044</v>
       </c>
       <c r="T40">
         <f t="shared" si="6"/>
-        <v>105428</v>
+        <v>25094</v>
       </c>
       <c r="U40">
         <f t="shared" si="6"/>
-        <v>120424.841468714</v>
+        <v>63086</v>
       </c>
       <c r="V40">
         <f t="shared" si="6"/>
-        <v>181774.620313166</v>
+        <v>45965</v>
       </c>
       <c r="W40">
         <f t="shared" si="6"/>
-        <v>208182.01859099802</v>
+        <v>42328.400000000023</v>
       </c>
       <c r="X40">
         <f t="shared" si="6"/>
-        <v>512976.8210235599</v>
+        <v>117949.19999999995</v>
       </c>
       <c r="Y40">
         <f t="shared" si="6"/>
-        <v>1117084.9897378101</v>
+        <v>436685.79999999981</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B41">
-        <v>79886</v>
+        <f>B32-B33</f>
+        <v>57558.799999999988</v>
       </c>
       <c r="C41">
-        <v>349735</v>
+        <f t="shared" ref="C41:Y41" si="7">C32-C33</f>
+        <v>194225.59999999998</v>
       </c>
       <c r="D41">
-        <v>291652</v>
+        <f t="shared" si="7"/>
+        <v>256793.40000000002</v>
       </c>
       <c r="E41">
-        <v>253578</v>
+        <f t="shared" si="7"/>
+        <v>248353</v>
       </c>
       <c r="F41">
-        <v>8639.5</v>
+        <f t="shared" si="7"/>
+        <v>4147.7000000000007</v>
       </c>
       <c r="G41">
-        <v>7738</v>
+        <f t="shared" si="7"/>
+        <v>47371.8</v>
       </c>
       <c r="H41">
-        <v>252501</v>
+        <f t="shared" si="7"/>
+        <v>29762.400000000023</v>
       </c>
       <c r="I41">
-        <v>423367</v>
+        <f t="shared" si="7"/>
+        <v>171356.5</v>
       </c>
       <c r="J41">
-        <v>245238.5</v>
+        <f t="shared" si="7"/>
+        <v>218470.00000000105</v>
       </c>
       <c r="K41">
-        <v>9465.25</v>
+        <f t="shared" si="7"/>
+        <v>3489.4000000000015</v>
       </c>
       <c r="L41">
-        <v>8546.75</v>
+        <f t="shared" si="7"/>
+        <v>24646.5</v>
       </c>
       <c r="M41">
-        <v>269052.5</v>
+        <f t="shared" si="7"/>
+        <v>78947.799999999988</v>
       </c>
       <c r="N41">
-        <v>199930</v>
+        <f t="shared" si="7"/>
+        <v>29872.799999999988</v>
       </c>
       <c r="O41">
-        <v>310073</v>
+        <f t="shared" si="7"/>
+        <v>130571.19999999995</v>
       </c>
       <c r="P41">
-        <v>914345.25</v>
+        <f t="shared" si="7"/>
+        <v>987146.5</v>
       </c>
       <c r="Q41">
-        <v>682350.5</v>
+        <f t="shared" si="7"/>
+        <v>1603064</v>
       </c>
       <c r="R41">
-        <v>10550</v>
+        <f t="shared" si="7"/>
+        <v>3821.7999999999993</v>
       </c>
       <c r="S41">
-        <v>126378.75</v>
+        <f t="shared" si="7"/>
+        <v>29108</v>
       </c>
       <c r="T41">
-        <v>176191</v>
+        <f t="shared" si="7"/>
+        <v>29033</v>
       </c>
       <c r="U41">
-        <v>318203.5</v>
+        <f t="shared" si="7"/>
+        <v>66440</v>
       </c>
       <c r="V41">
-        <v>265775.25</v>
+        <f t="shared" si="7"/>
+        <v>59381.400000000023</v>
       </c>
       <c r="W41">
-        <v>283775.5</v>
+        <f t="shared" si="7"/>
+        <v>41813.599999999977</v>
       </c>
       <c r="X41">
-        <v>537399</v>
+        <f t="shared" si="7"/>
+        <v>142922.19999999995</v>
       </c>
       <c r="Y41">
-        <v>2941409</v>
+        <f t="shared" si="7"/>
+        <v>559578.59999999963</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42">
+        <f>B31-B32</f>
+        <v>113999.20000000001</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:Y42" si="8">C31-C32</f>
+        <v>502190.9</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="8"/>
+        <v>604525.6</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="8"/>
+        <v>665145</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="8"/>
+        <v>6342.0499999999993</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="8"/>
+        <v>42724.2</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="8"/>
+        <v>63083.599999999977</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="8"/>
+        <v>409932.25</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="8"/>
+        <v>554189.99999999895</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="8"/>
+        <v>6317.5999999999985</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="8"/>
+        <v>26884.5</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="8"/>
+        <v>169731.20000000001</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="8"/>
+        <v>58991.200000000012</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="8"/>
+        <v>241563.80000000005</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="8"/>
+        <v>2234203.75</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="8"/>
+        <v>1298561.5</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="8"/>
+        <v>6616.7000000000007</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="8"/>
+        <v>43115</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="8"/>
+        <v>54496.75</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="8"/>
+        <v>104085</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="8"/>
+        <v>108721.59999999998</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="8"/>
+        <v>76932.900000000023</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="8"/>
+        <v>208785.80000000005</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="8"/>
+        <v>541770.40000000037</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43">
+        <f>B34-B35</f>
+        <v>75998</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:Y43" si="9">C34-C35</f>
+        <v>165590.20000000001</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="9"/>
+        <v>186660.80000000005</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="9"/>
+        <v>219140</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="9"/>
+        <v>5354.7000000000007</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="9"/>
+        <v>51333</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="9"/>
+        <v>69914</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="9"/>
+        <v>154208.5</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="9"/>
+        <v>203331.19999999995</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="9"/>
+        <v>6188.35</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="9"/>
+        <v>58194.05</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="9"/>
+        <v>80949.599999999977</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="9"/>
+        <v>59046.900000000023</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="9"/>
+        <v>105028.40000000002</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="9"/>
+        <v>303475.75</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="9"/>
+        <v>447470.5</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="9"/>
+        <v>8520.2000000000007</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="9"/>
+        <v>32380</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="9"/>
+        <v>42010.25</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="9"/>
+        <v>88944.75</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="9"/>
+        <v>100219.5</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="9"/>
+        <v>69714.099999999977</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="9"/>
+        <v>212067.80000000005</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="9"/>
+        <v>822047.20000000019</v>
       </c>
     </row>
   </sheetData>
+  <sortState columnSort="1" ref="R31:Y35">
+    <sortCondition ref="R33:Y33"/>
+  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967295" r:id="rId1"/>
@@ -6476,8 +5879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y22"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
